--- a/jupyter/fig/puzzles.xlsx
+++ b/jupyter/fig/puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiga/Crossword-LocalSearch/jupyter/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E5B87-EE32-1E4E-A065-D474C4CF50BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD564FA-7F74-3B4C-B5AB-155E9008224B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="27200" windowHeight="13880" xr2:uid="{B63E5693-AA1A-1C49-B66D-0F2BF49E466D}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="27200" windowHeight="13840" xr2:uid="{B63E5693-AA1A-1C49-B66D-0F2BF49E466D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4,0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -189,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -198,11 +210,257 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -210,310 +468,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -524,29 +505,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,9 +518,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,49 +530,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +916,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="61" customHeight="1"/>
@@ -943,201 +927,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1" thickBot="1">
-      <c r="B1" s="10">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="1">
         <v>1</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="1">
         <v>2</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="1">
         <v>3</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="1">
         <v>4</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="61" customHeight="1" thickBot="1">
-      <c r="A2" s="10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="D2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="61" customHeight="1" thickBot="1">
-      <c r="A3" s="10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="61" customHeight="1" thickBot="1">
-      <c r="A4" s="10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="61" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:14" ht="61" customHeight="1" thickBot="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="61" customHeight="1" thickBot="1">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/jupyter/fig/puzzles.xlsx
+++ b/jupyter/fig/puzzles.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiga/Crossword-LocalSearch/jupyter/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD564FA-7F74-3B4C-B5AB-155E9008224B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2058E35-5A40-504C-A073-7CE2C7B0672C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="27200" windowHeight="13840" xr2:uid="{B63E5693-AA1A-1C49-B66D-0F2BF49E466D}"/>
+    <workbookView xWindow="7240" yWindow="460" windowWidth="20020" windowHeight="13620" xr2:uid="{B63E5693-AA1A-1C49-B66D-0F2BF49E466D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>(0,0)</t>
     <phoneticPr fontId="1"/>
@@ -125,6 +126,94 @@
   </si>
   <si>
     <t>(4,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>単語番号５のHOGEの場合</t>
+    <rPh sb="0" eb="4">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,8 +269,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ヒラギノ丸ゴ ProN W4"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +309,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -499,13 +614,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +741,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +1099,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="61" customHeight="1"/>
@@ -1136,4 +1319,465 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F2F40-D641-DB43-8794-2E9A907C86F6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="5" width="4.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="10" width="4.28515625" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="36">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="36">
+        <v>5</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="38">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="38">
+        <v>5</v>
+      </c>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="38">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="36">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="36">
+        <v>5</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36">
+        <v>2</v>
+      </c>
+      <c r="J5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="38">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="38">
+        <v>5</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1</v>
+      </c>
+      <c r="I6" s="38">
+        <v>3</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="36">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>4</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="36">
+        <v>5</v>
+      </c>
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36">
+        <v>4</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="38">
+        <v>5</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="38">
+        <v>5</v>
+      </c>
+      <c r="H8" s="38">
+        <v>1</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="36">
+        <v>5</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="36">
+        <v>5</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38">
+        <v>5</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>2</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="38">
+        <v>5</v>
+      </c>
+      <c r="H10" s="38">
+        <v>1</v>
+      </c>
+      <c r="I10" s="38">
+        <v>2</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="36">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="36">
+        <v>5</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>3</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="38">
+        <v>4</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="38">
+        <v>5</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1</v>
+      </c>
+      <c r="I12" s="38">
+        <v>4</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>